--- a/sources/Sprachen Datei.xlsx
+++ b/sources/Sprachen Datei.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verawei/Documents/HA Sprachtypologie/sources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verawei/Desktop/HA Sprachtypologie/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="7660" windowWidth="28800" windowHeight="8740"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="143">
   <si>
     <t>Wortfolge</t>
   </si>
@@ -335,27 +335,9 @@
     <t>Spanisch</t>
   </si>
   <si>
-    <t>Spanien</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>-4.00</t>
-  </si>
-  <si>
-    <t>Albanisch</t>
-  </si>
-  <si>
-    <t>Albanien</t>
-  </si>
-  <si>
     <t>Persisch</t>
   </si>
   <si>
-    <t>41.00</t>
-  </si>
-  <si>
     <t>32.00</t>
   </si>
   <si>
@@ -428,9 +410,6 @@
     <t xml:space="preserve">? </t>
   </si>
   <si>
-    <t>SVO ?</t>
-  </si>
-  <si>
     <t>DET+Adj+Farbe+Adj-U+N</t>
   </si>
   <si>
@@ -458,7 +437,22 @@
     <t>? DET+Adj+Farbe+N</t>
   </si>
   <si>
-    <t>chinesisch</t>
+    <t>Mexiko</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>Num+N+Adj</t>
+  </si>
+  <si>
+    <t>N+Farbe+Adj</t>
+  </si>
+  <si>
+    <t>19.21</t>
+  </si>
+  <si>
+    <t>-99.38</t>
   </si>
 </sst>
 </file>
@@ -829,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,7 +846,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -867,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
         <v>36</v>
@@ -879,7 +873,7 @@
         <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>41</v>
@@ -923,19 +917,19 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
         <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -964,19 +958,19 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
         <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1005,19 +999,19 @@
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K4" t="s">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1040,53 +1034,80 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>105</v>
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -1095,39 +1116,39 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="J7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="K7" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>53</v>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -1136,39 +1157,39 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s">
         <v>114</v>
       </c>
-      <c r="K8" t="s">
-        <v>41</v>
-      </c>
       <c r="L8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -1177,39 +1198,39 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
@@ -1221,36 +1242,36 @@
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
         <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
@@ -1265,33 +1286,33 @@
         <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
         <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -1300,86 +1321,86 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
         <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1388,121 +1409,121 @@
         <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s">
         <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s">
         <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s">
         <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -1511,39 +1532,39 @@
         <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K17" t="s">
         <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G18" t="s">
         <v>33</v>
@@ -1552,156 +1573,156 @@
         <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s">
         <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J19" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K19" t="s">
         <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M19" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K20" t="s">
         <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="L21" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
         <v>31</v>
@@ -1710,224 +1731,237 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="K22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
         <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="K23" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="L23" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E24" t="s">
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I24" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="J24" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="K24" t="s">
         <v>41</v>
       </c>
       <c r="L24" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="E25" t="s">
         <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I25" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="J25" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="L25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K26" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M26" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>110</v>
+      </c>
+      <c r="M27" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C22" twoDigitTextYear="1"/>
+    <ignoredError sqref="C21" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>